--- a/21.xlsx
+++ b/21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2490,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2527,7 +2527,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.6E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2550,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -2573,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.16900000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2619,7 +2619,7 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>0.11700000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -2642,7 +2642,7 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -2665,7 +2665,7 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>0.51800000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2688,7 +2688,7 @@
         <v>36</v>
       </c>
       <c r="C9">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -2711,7 +2711,7 @@
         <v>40</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -2734,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="C11">
-        <v>0.44700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -2757,7 +2757,7 @@
         <v>48</v>
       </c>
       <c r="C12">
-        <v>4.7E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
@@ -2803,7 +2803,7 @@
         <v>56</v>
       </c>
       <c r="C14">
-        <v>7.5999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2826,7 +2826,7 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>0.34799999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2895,7 +2895,7 @@
         <v>72</v>
       </c>
       <c r="C18">
-        <v>0.53100000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="s">
         <v>73</v>
@@ -2918,7 +2918,7 @@
         <v>76</v>
       </c>
       <c r="C19">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
@@ -2941,7 +2941,7 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>2.5999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2987,7 +2987,7 @@
         <v>88</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D22" t="s">
         <v>89</v>
@@ -3010,7 +3010,7 @@
         <v>92</v>
       </c>
       <c r="C23">
-        <v>0.02</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D23" t="s">
         <v>93</v>
@@ -3056,7 +3056,7 @@
         <v>100</v>
       </c>
       <c r="C25">
-        <v>2.0499999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
@@ -3079,7 +3079,7 @@
         <v>104</v>
       </c>
       <c r="C26">
-        <v>1.9E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D26" t="s">
         <v>105</v>
@@ -3102,7 +3102,7 @@
         <v>108</v>
       </c>
       <c r="C27">
-        <v>7.2999999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D27" t="s">
         <v>109</v>
@@ -3125,7 +3125,7 @@
         <v>111</v>
       </c>
       <c r="C28">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D28" t="s">
         <v>112</v>
@@ -3148,7 +3148,7 @@
         <v>115</v>
       </c>
       <c r="C29">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D29" t="s">
         <v>116</v>
@@ -3171,7 +3171,7 @@
         <v>119</v>
       </c>
       <c r="C30">
-        <v>2.9000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D30" t="s">
         <v>120</v>
@@ -3194,7 +3194,7 @@
         <v>123</v>
       </c>
       <c r="C31">
-        <v>3.7999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D31" t="s">
         <v>124</v>
@@ -3217,7 +3217,7 @@
         <v>127</v>
       </c>
       <c r="C32">
-        <v>2.2799999999999998</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>128</v>
@@ -3263,7 +3263,7 @@
         <v>135</v>
       </c>
       <c r="C34">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D34" t="s">
         <v>136</v>
@@ -3286,7 +3286,7 @@
         <v>139</v>
       </c>
       <c r="C35">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D35" t="s">
         <v>140</v>
@@ -3309,7 +3309,7 @@
         <v>143</v>
       </c>
       <c r="C36">
-        <v>0.29799999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="D36" t="s">
         <v>144</v>
@@ -3332,7 +3332,7 @@
         <v>147</v>
       </c>
       <c r="C37">
-        <v>14.72</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D37" t="s">
         <v>148</v>
@@ -3355,7 +3355,7 @@
         <v>151</v>
       </c>
       <c r="C38">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="D38" t="s">
         <v>152</v>
@@ -3401,7 +3401,7 @@
         <v>159</v>
       </c>
       <c r="C40">
-        <v>1.4999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D40" t="s">
         <v>160</v>
@@ -3424,7 +3424,7 @@
         <v>163</v>
       </c>
       <c r="C41">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D41" t="s">
         <v>164</v>
@@ -3447,7 +3447,7 @@
         <v>167</v>
       </c>
       <c r="C42">
-        <v>0.06</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D42" t="s">
         <v>168</v>
@@ -3470,7 +3470,7 @@
         <v>171</v>
       </c>
       <c r="C43">
-        <v>6.0999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D43" t="s">
         <v>172</v>
@@ -3493,7 +3493,7 @@
         <v>175</v>
       </c>
       <c r="C44">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D44" t="s">
         <v>176</v>
@@ -3516,7 +3516,7 @@
         <v>179</v>
       </c>
       <c r="C45">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D45" t="s">
         <v>180</v>
@@ -3539,7 +3539,7 @@
         <v>183</v>
       </c>
       <c r="C46">
-        <v>0.27300000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D46" t="s">
         <v>184</v>
@@ -3562,7 +3562,7 @@
         <v>187</v>
       </c>
       <c r="C47">
-        <v>0.372</v>
+        <v>0.36</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -3585,7 +3585,7 @@
         <v>191</v>
       </c>
       <c r="C48">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D48" t="s">
         <v>192</v>
@@ -3608,7 +3608,7 @@
         <v>195</v>
       </c>
       <c r="C49">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D49" t="s">
         <v>196</v>
@@ -3631,7 +3631,7 @@
         <v>199</v>
       </c>
       <c r="C50">
-        <v>8.3000000000000004E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D50" t="s">
         <v>200</v>
@@ -3654,7 +3654,7 @@
         <v>203</v>
       </c>
       <c r="C51">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="D51" t="s">
         <v>204</v>
@@ -3677,7 +3677,7 @@
         <v>207</v>
       </c>
       <c r="C52">
-        <v>0.39400000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="D52" t="s">
         <v>208</v>
@@ -3723,7 +3723,7 @@
         <v>215</v>
       </c>
       <c r="C54">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D54" t="s">
         <v>216</v>
@@ -3746,7 +3746,7 @@
         <v>219</v>
       </c>
       <c r="C55">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D55" t="s">
         <v>220</v>
@@ -3769,7 +3769,7 @@
         <v>223</v>
       </c>
       <c r="C56">
-        <v>3.5999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D56" t="s">
         <v>224</v>
@@ -3792,7 +3792,7 @@
         <v>227</v>
       </c>
       <c r="C57">
-        <v>0.107</v>
+        <v>0.114</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3838,7 +3838,7 @@
         <v>235</v>
       </c>
       <c r="C59">
-        <v>0.28100000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3861,7 +3861,7 @@
         <v>239</v>
       </c>
       <c r="C60">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="D60" t="s">
         <v>240</v>
@@ -3884,7 +3884,7 @@
         <v>243</v>
       </c>
       <c r="C61">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D61" t="s">
         <v>244</v>
@@ -3930,7 +3930,7 @@
         <v>251</v>
       </c>
       <c r="C63">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D63" t="s">
         <v>252</v>
@@ -3953,7 +3953,7 @@
         <v>255</v>
       </c>
       <c r="C64">
-        <v>4.42</v>
+        <v>4.8</v>
       </c>
       <c r="D64" t="s">
         <v>256</v>
@@ -3976,7 +3976,7 @@
         <v>259</v>
       </c>
       <c r="C65">
-        <v>6.9000000000000006E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D65" t="s">
         <v>260</v>
@@ -3999,7 +3999,7 @@
         <v>263</v>
       </c>
       <c r="C66">
-        <v>0.21299999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="D66" t="s">
         <v>264</v>
@@ -4045,7 +4045,7 @@
         <v>271</v>
       </c>
       <c r="C68">
-        <v>7.8E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D68" t="s">
         <v>272</v>
@@ -4068,7 +4068,7 @@
         <v>275</v>
       </c>
       <c r="C69">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D69" t="s">
         <v>276</v>
@@ -4114,7 +4114,7 @@
         <v>282</v>
       </c>
       <c r="C71">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D71" t="s">
         <v>283</v>
@@ -4137,7 +4137,7 @@
         <v>286</v>
       </c>
       <c r="C72">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D72" t="s">
         <v>287</v>
@@ -4160,7 +4160,7 @@
         <v>290</v>
       </c>
       <c r="C73">
-        <v>2.5000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D73" t="s">
         <v>291</v>
@@ -4183,7 +4183,7 @@
         <v>294</v>
       </c>
       <c r="C74">
-        <v>0.16200000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D74" t="s">
         <v>295</v>
@@ -4206,7 +4206,7 @@
         <v>298</v>
       </c>
       <c r="C75">
-        <v>2.3E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D75" t="s">
         <v>299</v>
@@ -4229,7 +4229,7 @@
         <v>302</v>
       </c>
       <c r="C76">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>303</v>
@@ -4252,7 +4252,7 @@
         <v>306</v>
       </c>
       <c r="C77">
-        <v>1.1100000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D77" t="s">
         <v>307</v>
@@ -4275,7 +4275,7 @@
         <v>310</v>
       </c>
       <c r="C78">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D78" t="s">
         <v>311</v>
@@ -4298,7 +4298,7 @@
         <v>314</v>
       </c>
       <c r="C79">
-        <v>0.189</v>
+        <v>0.16</v>
       </c>
       <c r="D79" t="s">
         <v>315</v>
@@ -4321,7 +4321,7 @@
         <v>318</v>
       </c>
       <c r="C80">
-        <v>0.38800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -4344,7 +4344,7 @@
         <v>322</v>
       </c>
       <c r="C81">
-        <v>0.38700000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="D81" t="s">
         <v>323</v>
@@ -4367,7 +4367,7 @@
         <v>326</v>
       </c>
       <c r="C82">
-        <v>1.89</v>
+        <v>2.5</v>
       </c>
       <c r="D82" t="s">
         <v>327</v>
@@ -4390,7 +4390,7 @@
         <v>330</v>
       </c>
       <c r="C83">
-        <v>1.6E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D83" t="s">
         <v>331</v>
@@ -4413,7 +4413,7 @@
         <v>334</v>
       </c>
       <c r="C84">
-        <v>5.08</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D84" t="s">
         <v>335</v>
@@ -4436,7 +4436,7 @@
         <v>338</v>
       </c>
       <c r="C85">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D85" t="s">
         <v>339</v>
@@ -4459,7 +4459,7 @@
         <v>342</v>
       </c>
       <c r="C86">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="D86" t="s">
         <v>343</v>
@@ -4482,7 +4482,7 @@
         <v>346</v>
       </c>
       <c r="C87">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D87" t="s">
         <v>347</v>
@@ -4505,7 +4505,7 @@
         <v>350</v>
       </c>
       <c r="C88">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -4528,7 +4528,7 @@
         <v>354</v>
       </c>
       <c r="C89">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="D89" t="s">
         <v>355</v>
@@ -4574,7 +4574,7 @@
         <v>362</v>
       </c>
       <c r="C91">
-        <v>0.14199999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D91" t="s">
         <v>363</v>
@@ -4597,7 +4597,7 @@
         <v>366</v>
       </c>
       <c r="C92">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D92" t="s">
         <v>367</v>
@@ -4620,7 +4620,7 @@
         <v>370</v>
       </c>
       <c r="C93">
-        <v>1.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D93" t="s">
         <v>371</v>
@@ -4643,7 +4643,7 @@
         <v>374</v>
       </c>
       <c r="C94">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D94" t="s">
         <v>375</v>
@@ -4666,7 +4666,7 @@
         <v>378</v>
       </c>
       <c r="C95">
-        <v>4.2999999999999997E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D95" t="s">
         <v>379</v>
@@ -4712,7 +4712,7 @@
         <v>386</v>
       </c>
       <c r="C97">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D97" t="s">
         <v>387</v>
@@ -4735,7 +4735,7 @@
         <v>390</v>
       </c>
       <c r="C98">
-        <v>5.1999999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D98" t="s">
         <v>391</v>
@@ -4758,7 +4758,7 @@
         <v>394</v>
       </c>
       <c r="C99">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D99" t="s">
         <v>395</v>
@@ -4781,7 +4781,7 @@
         <v>398</v>
       </c>
       <c r="C100">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D100" t="s">
         <v>399</v>
@@ -4850,7 +4850,7 @@
         <v>409</v>
       </c>
       <c r="C103">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D103" t="s">
         <v>410</v>
@@ -4873,7 +4873,7 @@
         <v>413</v>
       </c>
       <c r="C104">
-        <v>0.35399999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D104" t="s">
         <v>414</v>
@@ -4919,7 +4919,7 @@
         <v>421</v>
       </c>
       <c r="C106">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D106" t="s">
         <v>422</v>
@@ -4942,7 +4942,7 @@
         <v>425</v>
       </c>
       <c r="C107">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D107" t="s">
         <v>424</v>
@@ -4965,7 +4965,7 @@
         <v>428</v>
       </c>
       <c r="C108">
-        <v>5.6000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D108" t="s">
         <v>429</v>
@@ -4988,7 +4988,7 @@
         <v>432</v>
       </c>
       <c r="C109">
-        <v>6.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D109" t="s">
         <v>433</v>
@@ -5011,7 +5011,7 @@
         <v>436</v>
       </c>
       <c r="C110">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
       <c r="D110" t="s">
         <v>437</v>
@@ -5034,7 +5034,7 @@
         <v>440</v>
       </c>
       <c r="C111">
-        <v>1.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D111" t="s">
         <v>441</v>
@@ -5057,7 +5057,7 @@
         <v>444</v>
       </c>
       <c r="C112">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D112" t="s">
         <v>445</v>
@@ -5080,7 +5080,7 @@
         <v>448</v>
       </c>
       <c r="C113">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D113" t="s">
         <v>449</v>
@@ -5103,7 +5103,7 @@
         <v>452</v>
       </c>
       <c r="C114">
-        <v>3.1E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D114" t="s">
         <v>453</v>
@@ -5126,7 +5126,7 @@
         <v>456</v>
       </c>
       <c r="C115">
-        <v>0.98499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D115" t="s">
         <v>457</v>
@@ -5149,7 +5149,7 @@
         <v>460</v>
       </c>
       <c r="C116">
-        <v>0.22800000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D116" t="s">
         <v>461</v>
@@ -5172,7 +5172,7 @@
         <v>464</v>
       </c>
       <c r="C117">
-        <v>1.2999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D117" t="s">
         <v>465</v>
@@ -5195,7 +5195,7 @@
         <v>468</v>
       </c>
       <c r="C118">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D118" t="s">
         <v>469</v>
@@ -5218,7 +5218,7 @@
         <v>472</v>
       </c>
       <c r="C119">
-        <v>0.51400000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="D119" t="s">
         <v>473</v>
@@ -5241,7 +5241,7 @@
         <v>476</v>
       </c>
       <c r="C120">
-        <v>0.40400000000000003</v>
+        <v>0.64</v>
       </c>
       <c r="D120" t="s">
         <v>477</v>
@@ -5264,7 +5264,7 @@
         <v>480</v>
       </c>
       <c r="C121">
-        <v>7.9000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D121" t="s">
         <v>481</v>
@@ -5287,7 +5287,7 @@
         <v>484</v>
       </c>
       <c r="C122">
-        <v>0.27800000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="D122" t="s">
         <v>485</v>
@@ -5310,7 +5310,7 @@
         <v>488</v>
       </c>
       <c r="C123">
-        <v>6.3E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D123" t="s">
         <v>489</v>
@@ -5333,7 +5333,7 @@
         <v>492</v>
       </c>
       <c r="C124">
-        <v>2.9000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D124" t="s">
         <v>493</v>
@@ -5356,7 +5356,7 @@
         <v>496</v>
       </c>
       <c r="C125">
-        <v>4.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D125" t="s">
         <v>497</v>
@@ -5379,7 +5379,7 @@
         <v>500</v>
       </c>
       <c r="C126">
-        <v>0.23200000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="D126" t="s">
         <v>501</v>
@@ -5402,7 +5402,7 @@
         <v>504</v>
       </c>
       <c r="C127">
-        <v>0.375</v>
+        <v>0.42</v>
       </c>
       <c r="D127" t="s">
         <v>505</v>
@@ -5425,7 +5425,7 @@
         <v>508</v>
       </c>
       <c r="C128">
-        <v>0.64100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="D128" t="s">
         <v>509</v>
@@ -5448,7 +5448,7 @@
         <v>512</v>
       </c>
       <c r="C129">
-        <v>0.254</v>
+        <v>0.27</v>
       </c>
       <c r="D129" t="s">
         <v>513</v>
@@ -5471,7 +5471,7 @@
         <v>516</v>
       </c>
       <c r="C130">
-        <v>0.19600000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="D130" t="s">
         <v>517</v>
@@ -5540,7 +5540,7 @@
         <v>528</v>
       </c>
       <c r="C133">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D133" t="s">
         <v>529</v>
@@ -5563,7 +5563,7 @@
         <v>532</v>
       </c>
       <c r="C134">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D134" t="s">
         <v>533</v>
@@ -5586,7 +5586,7 @@
         <v>536</v>
       </c>
       <c r="C135">
-        <v>8.0000000000000002E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D135" t="s">
         <v>535</v>
@@ -5655,7 +5655,7 @@
         <v>547</v>
       </c>
       <c r="C138">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D138" t="s">
         <v>548</v>
@@ -5701,7 +5701,7 @@
         <v>555</v>
       </c>
       <c r="C140">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D140" t="s">
         <v>556</v>
@@ -5724,7 +5724,7 @@
         <v>559</v>
       </c>
       <c r="C141">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D141" t="s">
         <v>560</v>
@@ -5747,7 +5747,7 @@
         <v>563</v>
       </c>
       <c r="C142">
-        <v>0.38200000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D142" t="s">
         <v>562</v>
@@ -5770,7 +5770,7 @@
         <v>566</v>
       </c>
       <c r="C143">
-        <v>0.106</v>
+        <v>0.12</v>
       </c>
       <c r="D143" t="s">
         <v>567</v>
@@ -5793,7 +5793,7 @@
         <v>569</v>
       </c>
       <c r="C144">
-        <v>6.4000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D144" t="s">
         <v>570</v>
@@ -5862,7 +5862,7 @@
         <v>581</v>
       </c>
       <c r="C147">
-        <v>0.35099999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="D147" t="s">
         <v>582</v>
@@ -5885,7 +5885,7 @@
         <v>585</v>
       </c>
       <c r="C148">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D148" t="s">
         <v>586</v>
@@ -5908,7 +5908,7 @@
         <v>588</v>
       </c>
       <c r="C149">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="D149" t="s">
         <v>589</v>
@@ -5931,7 +5931,7 @@
         <v>592</v>
       </c>
       <c r="C150">
-        <v>9.1999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D150" t="s">
         <v>593</v>
@@ -5954,7 +5954,7 @@
         <v>596</v>
       </c>
       <c r="C151">
-        <v>4.9000000000000002E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D151" t="s">
         <v>597</v>
@@ -5977,7 +5977,7 @@
         <v>599</v>
       </c>
       <c r="C152">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D152" t="s">
         <v>600</v>
@@ -6023,7 +6023,7 @@
         <v>606</v>
       </c>
       <c r="C154">
-        <v>0.55900000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="D154" t="s">
         <v>607</v>
@@ -6046,7 +6046,7 @@
         <v>610</v>
       </c>
       <c r="C155">
-        <v>0.70599999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="D155" t="s">
         <v>611</v>
@@ -6069,7 +6069,7 @@
         <v>614</v>
       </c>
       <c r="C156">
-        <v>4.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D156" t="s">
         <v>615</v>
@@ -6092,7 +6092,7 @@
         <v>618</v>
       </c>
       <c r="C157">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D157" t="s">
         <v>619</v>
@@ -6115,7 +6115,7 @@
         <v>621</v>
       </c>
       <c r="C158">
-        <v>6.3E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D158" t="s">
         <v>622</v>
@@ -6138,7 +6138,7 @@
         <v>625</v>
       </c>
       <c r="C159">
-        <v>0.54400000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="D159" t="s">
         <v>626</v>
@@ -6161,7 +6161,7 @@
         <v>629</v>
       </c>
       <c r="C160">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D160" t="s">
         <v>630</v>
@@ -6184,7 +6184,7 @@
         <v>633</v>
       </c>
       <c r="C161">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D161" t="s">
         <v>634</v>
@@ -6207,7 +6207,7 @@
         <v>637</v>
       </c>
       <c r="C162">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D162" t="s">
         <v>638</v>
@@ -6230,7 +6230,7 @@
         <v>641</v>
       </c>
       <c r="C163">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D163" t="s">
         <v>642</v>
@@ -6253,7 +6253,7 @@
         <v>645</v>
       </c>
       <c r="C164">
-        <v>4.2999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D164" t="s">
         <v>646</v>
@@ -6276,7 +6276,7 @@
         <v>649</v>
       </c>
       <c r="C165">
-        <v>0.85099999999999998</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
         <v>650</v>
@@ -6299,7 +6299,7 @@
         <v>653</v>
       </c>
       <c r="C166">
-        <v>4.2000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D166" t="s">
         <v>654</v>
@@ -6345,7 +6345,7 @@
         <v>660</v>
       </c>
       <c r="C168">
-        <v>3.2000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D168" t="s">
         <v>661</v>
@@ -6368,7 +6368,7 @@
         <v>664</v>
       </c>
       <c r="C169">
-        <v>0.153</v>
+        <v>0.18</v>
       </c>
       <c r="D169" t="s">
         <v>665</v>
@@ -6391,7 +6391,7 @@
         <v>668</v>
       </c>
       <c r="C170">
-        <v>0.42099999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="D170" t="s">
         <v>669</v>
@@ -6414,7 +6414,7 @@
         <v>672</v>
       </c>
       <c r="C171">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="D171" t="s">
         <v>673</v>
@@ -6437,7 +6437,7 @@
         <v>676</v>
       </c>
       <c r="C172">
-        <v>22.32</v>
+        <v>22.7</v>
       </c>
       <c r="D172" t="s">
         <v>677</v>
@@ -6460,7 +6460,7 @@
         <v>680</v>
       </c>
       <c r="C173">
-        <v>0.06</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D173" t="s">
         <v>681</v>
@@ -6483,7 +6483,7 @@
         <v>684</v>
       </c>
       <c r="C174">
-        <v>7.2999999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D174" t="s">
         <v>685</v>
@@ -6506,7 +6506,7 @@
         <v>688</v>
       </c>
       <c r="C175">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D175" t="s">
         <v>689</v>
@@ -6529,7 +6529,7 @@
         <v>692</v>
       </c>
       <c r="C176">
-        <v>2.5999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D176" t="s">
         <v>693</v>
@@ -6552,7 +6552,7 @@
         <v>696</v>
       </c>
       <c r="C177">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D177" t="s">
         <v>697</v>
@@ -6575,7 +6575,7 @@
         <v>700</v>
       </c>
       <c r="C178">
-        <v>2.7E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D178" t="s">
         <v>701</v>
@@ -6598,7 +6598,7 @@
         <v>704</v>
       </c>
       <c r="C179">
-        <v>2.9000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D179" t="s">
         <v>705</v>
@@ -6621,7 +6621,7 @@
         <v>708</v>
       </c>
       <c r="C180">
-        <v>2.1999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D180" t="s">
         <v>709</v>
